--- a/rider/weekly/2017_14.xlsx
+++ b/rider/weekly/2017_14.xlsx
@@ -195,25 +195,25 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>212</c:v>
+                  <c:v>193</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>217</c:v>
+                  <c:v>205</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>242</c:v>
+                  <c:v>233</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>230</c:v>
+                  <c:v>239</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>193</c:v>
+                  <c:v>270</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>97</c:v>
+                  <c:v>95</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>70</c:v>
+                  <c:v>69</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -271,25 +271,25 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>219.67</c:v>
+                  <c:v>225.14</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>212.17</c:v>
+                  <c:v>211.35</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>220.96</c:v>
+                  <c:v>213.22</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>235.32</c:v>
+                  <c:v>239.32</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>236.61</c:v>
+                  <c:v>242.83</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>112.88</c:v>
+                  <c:v>113.04</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>93.55</c:v>
+                  <c:v>93.09</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -810,10 +810,10 @@
         <v>6</v>
       </c>
       <c r="C2">
-        <v>212</v>
+        <v>193</v>
       </c>
       <c r="D2">
-        <v>219.67</v>
+        <v>225.14</v>
       </c>
       <c r="E2">
         <v>113.2</v>
@@ -827,10 +827,10 @@
         <v>8</v>
       </c>
       <c r="C3">
-        <v>217</v>
+        <v>205</v>
       </c>
       <c r="D3">
-        <v>212.17</v>
+        <v>211.35</v>
       </c>
       <c r="E3">
         <v>113.36</v>
@@ -844,10 +844,10 @@
         <v>10</v>
       </c>
       <c r="C4">
-        <v>242</v>
+        <v>233</v>
       </c>
       <c r="D4">
-        <v>220.96</v>
+        <v>213.22</v>
       </c>
       <c r="E4">
         <v>113.52</v>
@@ -861,10 +861,10 @@
         <v>12</v>
       </c>
       <c r="C5">
-        <v>230</v>
+        <v>239</v>
       </c>
       <c r="D5">
-        <v>235.32</v>
+        <v>239.32</v>
       </c>
       <c r="E5">
         <v>113.69</v>
@@ -878,10 +878,10 @@
         <v>14</v>
       </c>
       <c r="C6">
-        <v>193</v>
+        <v>270</v>
       </c>
       <c r="D6">
-        <v>236.61</v>
+        <v>242.83</v>
       </c>
       <c r="E6">
         <v>113.85</v>
@@ -895,10 +895,10 @@
         <v>16</v>
       </c>
       <c r="C7">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="D7">
-        <v>112.88</v>
+        <v>113.04</v>
       </c>
       <c r="E7">
         <v>114.01</v>
@@ -912,10 +912,10 @@
         <v>18</v>
       </c>
       <c r="C8">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D8">
-        <v>93.55</v>
+        <v>93.09</v>
       </c>
       <c r="E8">
         <v>114.17</v>
